--- a/Collections/Kazakhstan/#Kazakhstan#Regular#[1995-present]#circulation_quality.xlsx
+++ b/Collections/Kazakhstan/#Kazakhstan#Regular#[1995-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Kazakhstan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F22334-C326-446D-860E-B02BF8BB5C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3143E64-6AF2-4B61-88A7-C70B8180E261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2тиын" sheetId="4" r:id="rId1"/>
@@ -29,6 +29,22 @@
     <sheet name="200тенге" sheetId="26" r:id="rId14"/>
     <sheet name="Links" sheetId="3" r:id="rId15"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'100тенге'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'10тенге'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'10тиын'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'1тенге'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'200тенге'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'20тенге'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20тиын'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2тенге'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2тиын'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3тенге'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'50тенге'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'50тиын'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'5тенге'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'5тиын'!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -647,12 +663,6 @@
     <t>Mintage</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -788,9 +798,6 @@
     <t>Bimetallic: copper-nickel center in nickel brass ring</t>
   </si>
   <si>
-    <t>Subtype_3</t>
-  </si>
-  <si>
     <t>Rev: 100 tenge</t>
   </si>
   <si>
@@ -801,6 +808,15 @@
   </si>
   <si>
     <t>Bimetallic: aluminium brass center in copper-nickel ring</t>
+  </si>
+  <si>
+    <t>Subtype_1#Composition</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_3#Reverse</t>
   </si>
 </sst>
 </file>
@@ -1114,16 +1130,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2830,26 +2846,24 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="49.453125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
@@ -2858,23 +2872,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="17" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2882,14 +2898,14 @@
         <v>1993</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -2904,14 +2920,14 @@
         <v>1993</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -3667,9 +3683,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -3840,26 +3856,24 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="55.7265625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
@@ -3868,23 +3882,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3892,16 +3908,16 @@
         <v>1993</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -3988,14 +4004,14 @@
         <v>1997</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -4059,14 +4075,14 @@
         <v>2000</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -4105,14 +4121,14 @@
         <v>2002</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -4151,14 +4167,14 @@
         <v>2004</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -4173,14 +4189,14 @@
         <v>2005</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -4195,14 +4211,14 @@
         <v>2006</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -4289,14 +4305,14 @@
         <v>2010</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -4311,14 +4327,14 @@
         <v>2011</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -4333,14 +4349,14 @@
         <v>2012</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -4355,14 +4371,14 @@
         <v>2013</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -4377,14 +4393,14 @@
         <v>2014</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -4399,14 +4415,14 @@
         <v>2015</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -4421,14 +4437,14 @@
         <v>2016</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
@@ -4443,14 +4459,14 @@
         <v>2017</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
@@ -4465,14 +4481,14 @@
         <v>2018</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
@@ -4487,16 +4503,16 @@
         <v>2019</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="E29" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
@@ -4511,16 +4527,16 @@
         <v>2020</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="E30" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
@@ -4535,16 +4551,16 @@
         <v>2021</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="E31" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -4559,16 +4575,16 @@
         <v>2022</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="E32" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
@@ -4583,16 +4599,16 @@
         <v>2023</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="E33" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
@@ -4627,9 +4643,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{898A6DD0-372D-42B3-A5A3-53EDFACC0DDB}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F8:F9 F3 F11 F13 F17:F19">
@@ -4884,26 +4900,24 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="55.7265625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
@@ -4912,23 +4926,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="17" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4936,16 +4952,16 @@
         <v>1993</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -5032,14 +5048,14 @@
         <v>1997</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -5103,14 +5119,14 @@
         <v>2000</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -5149,14 +5165,14 @@
         <v>2002</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -5243,14 +5259,14 @@
         <v>2006</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -5337,14 +5353,14 @@
         <v>2010</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -5359,14 +5375,14 @@
         <v>2011</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -5381,14 +5397,14 @@
         <v>2012</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -5403,14 +5419,14 @@
         <v>2013</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -5425,14 +5441,14 @@
         <v>2014</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -5447,14 +5463,14 @@
         <v>2015</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -5469,14 +5485,14 @@
         <v>2016</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
@@ -5491,14 +5507,14 @@
         <v>2017</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -5513,14 +5529,14 @@
         <v>2018</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -5535,16 +5551,16 @@
         <v>2019</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
@@ -5559,16 +5575,16 @@
         <v>2020</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F30" s="2">
         <v>0</v>
@@ -5583,16 +5599,16 @@
         <v>2021</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -5607,16 +5623,16 @@
         <v>2022</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
@@ -5631,16 +5647,16 @@
         <v>2023</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
@@ -5675,9 +5691,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{C19897AD-DB32-4802-8079-E69FF40B74A5}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F8:F9 F3 F11 F13 F17:F19">
@@ -5915,26 +5931,24 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="55.7265625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
@@ -5943,23 +5957,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="17" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6063,14 +6079,14 @@
         <v>1997</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -6134,14 +6150,14 @@
         <v>2000</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -6180,14 +6196,14 @@
         <v>2002</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -6274,14 +6290,14 @@
         <v>2006</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -6296,14 +6312,14 @@
         <v>2007</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -6486,14 +6502,14 @@
         <v>2015</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -6508,14 +6524,14 @@
         <v>2016</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -6530,14 +6546,14 @@
         <v>2017</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -6552,14 +6568,14 @@
         <v>2018</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -6574,16 +6590,16 @@
         <v>2019</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
@@ -6598,16 +6614,16 @@
         <v>2020</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
@@ -6622,16 +6638,16 @@
         <v>2021</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -6646,16 +6662,16 @@
         <v>2022</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>
@@ -6670,16 +6686,16 @@
         <v>2023</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
@@ -6714,9 +6730,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{BEF9BCBB-C212-4D6D-A2A3-BA20330D3629}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F8:F9 F11 F13 F18:F24">
@@ -7056,27 +7072,24 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="55.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
@@ -7086,26 +7099,28 @@
         <v>3</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="17" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7339,15 +7354,15 @@
         <v>2002</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -7387,15 +7402,15 @@
         <v>2004</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -7410,15 +7425,15 @@
         <v>2005</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -7433,15 +7448,15 @@
         <v>2006</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -7456,15 +7471,15 @@
         <v>2007</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -7754,19 +7769,19 @@
         <v>2019</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -7781,19 +7796,19 @@
         <v>2020</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -7808,19 +7823,19 @@
         <v>2021</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -7835,19 +7850,19 @@
         <v>2022</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
@@ -7862,19 +7877,19 @@
         <v>2023</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
@@ -7910,9 +7925,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{1F9C7DAA-01C4-4861-B3EA-F5AF89B42AE1}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:G11 G13 G18:G28">
@@ -8095,31 +8110,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9959059-BCFD-46F3-922E-B2B85AC54E97}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="55.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
@@ -8129,26 +8141,28 @@
         <v>3</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8832,19 +8846,19 @@
         <v>2020</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
@@ -8859,19 +8873,19 @@
         <v>2021</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -8911,19 +8925,19 @@
         <v>2023</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
@@ -8959,9 +8973,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{E9959059-BCFD-46F3-922E-B2B85AC54E97}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:G28">
@@ -9109,13 +9123,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9123,10 +9137,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9134,10 +9148,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9145,10 +9159,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -9156,10 +9170,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9167,7 +9181,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="9"/>
     </row>
@@ -9195,26 +9209,24 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="49.453125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
@@ -9223,23 +9235,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="17" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9247,14 +9261,14 @@
         <v>1993</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -9269,14 +9283,14 @@
         <v>1993</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -10032,9 +10046,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{FC84B87D-4EE2-489E-97AB-ED45BA8253B3}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F8:F27 F29">
@@ -10204,26 +10218,24 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="49.453125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
@@ -10232,23 +10244,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="17" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10256,14 +10270,14 @@
         <v>1993</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -10278,14 +10292,14 @@
         <v>1993</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -11041,9 +11055,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{E179BEC1-8C55-4CDE-9190-5B00D1609C48}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F8:F27 F29">
@@ -11213,26 +11227,24 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="49.453125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
@@ -11241,23 +11253,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="17" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11265,14 +11279,14 @@
         <v>1993</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -11287,14 +11301,14 @@
         <v>1993</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -12050,9 +12064,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{B613366D-3DF2-4C8B-833D-DFFD341C6695}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F8:F27 F29">
@@ -12222,26 +12236,24 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="49.453125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
@@ -12250,23 +12262,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="17" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12274,14 +12288,14 @@
         <v>1993</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -12296,14 +12310,14 @@
         <v>1993</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -13059,9 +13073,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{28ED3FA8-A963-416C-AC0D-D2266577F95E}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F8:F27 F29">
@@ -13231,26 +13245,24 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="55.81640625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
@@ -13259,23 +13271,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="17" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13283,14 +13297,14 @@
         <v>1993</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -13377,14 +13391,14 @@
         <v>1997</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -13448,14 +13462,14 @@
         <v>2000</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -13494,14 +13508,14 @@
         <v>2002</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -13540,14 +13554,14 @@
         <v>2004</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -13562,14 +13576,14 @@
         <v>2005</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -13704,14 +13718,14 @@
         <v>2011</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -13726,14 +13740,14 @@
         <v>2012</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -13748,14 +13762,14 @@
         <v>2013</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -13770,14 +13784,14 @@
         <v>2014</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -13792,14 +13806,14 @@
         <v>2014</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -13814,14 +13828,14 @@
         <v>2015</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -13836,14 +13850,14 @@
         <v>2015</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
@@ -13858,14 +13872,14 @@
         <v>2016</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -13880,14 +13894,14 @@
         <v>2016</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
@@ -13902,14 +13916,14 @@
         <v>2017</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F30" s="2">
         <v>0</v>
@@ -13924,14 +13938,14 @@
         <v>2018</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
@@ -13946,16 +13960,16 @@
         <v>2019</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="E32" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
@@ -13970,16 +13984,16 @@
         <v>2020</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="E33" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
@@ -13994,16 +14008,16 @@
         <v>2021</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="E34" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
@@ -14042,16 +14056,16 @@
         <v>2023</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="E36" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
@@ -14086,9 +14100,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{60F10BB6-3A9D-4F47-ADD6-C0193E61F9C7}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F8:F9 F3 F11 F13 F16:F20">
@@ -14543,30 +14557,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0252CA-5787-40F6-97A3-51258DB4FC20}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15:H37"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="56.6328125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
@@ -14575,23 +14587,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="17" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14888,14 +14902,14 @@
         <v>2005</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -14910,14 +14924,14 @@
         <v>2006</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -15340,16 +15354,16 @@
         <v>2021</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="E34" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
@@ -15388,16 +15402,16 @@
         <v>2023</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="E36" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
@@ -15432,9 +15446,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{7C0252CA-5787-40F6-97A3-51258DB4FC20}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F17:F33 F35 F37">
@@ -15553,26 +15567,24 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="67.453125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
@@ -15581,23 +15593,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="17" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -15605,14 +15619,14 @@
         <v>1993</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -16440,9 +16454,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{8262B2A2-C0EC-40CD-9383-19C163C4D032}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F12:F37">
@@ -16510,26 +16524,24 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="55.7265625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
@@ -16538,23 +16550,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="17" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16562,14 +16576,14 @@
         <v>1993</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -16656,14 +16670,14 @@
         <v>1997</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -16727,14 +16741,14 @@
         <v>2000</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -16773,14 +16787,14 @@
         <v>2002</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -16819,14 +16833,14 @@
         <v>2004</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -16841,14 +16855,14 @@
         <v>2005</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -16863,14 +16877,14 @@
         <v>2006</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -16957,14 +16971,14 @@
         <v>2010</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -16979,14 +16993,14 @@
         <v>2011</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -17001,14 +17015,14 @@
         <v>2012</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
@@ -17023,14 +17037,14 @@
         <v>2013</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -17045,14 +17059,14 @@
         <v>2014</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -17067,14 +17081,14 @@
         <v>2015</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -17089,14 +17103,14 @@
         <v>2016</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -17111,14 +17125,14 @@
         <v>2016</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
@@ -17133,14 +17147,14 @@
         <v>2017</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -17155,14 +17169,14 @@
         <v>2018</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
@@ -17177,16 +17191,16 @@
         <v>2019</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="E30" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
@@ -17201,16 +17215,16 @@
         <v>2020</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="E31" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -17225,16 +17239,16 @@
         <v>2021</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="E32" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>
@@ -17273,16 +17287,16 @@
         <v>2023</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="E34" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
@@ -17317,9 +17331,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{BA6C094A-BCA9-47D9-8131-35A8E9CCEDE1}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F8:F9 F3 F11 F13 F17:F19">

--- a/Collections/Kazakhstan/#Kazakhstan#Regular#[1995-present]#circulation_quality.xlsx
+++ b/Collections/Kazakhstan/#Kazakhstan#Regular#[1995-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Kazakhstan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3143E64-6AF2-4B61-88A7-C70B8180E261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24DBC0F-3843-4E03-8B65-30AE9712F3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2тиын" sheetId="4" r:id="rId1"/>
@@ -649,7 +649,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="56">
   <si>
     <t>-</t>
   </si>
@@ -703,12 +703,6 @@
   </si>
   <si>
     <t>2тиын</t>
-  </si>
-  <si>
-    <t>Brass plated zinc</t>
-  </si>
-  <si>
-    <t>Copper plated zinc</t>
   </si>
   <si>
     <t>Obv: National emblem surrounded by the country name</t>
@@ -817,6 +811,12 @@
   </si>
   <si>
     <t>Subtype_3#Reverse</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_2</t>
   </si>
 </sst>
 </file>
@@ -1153,15 +1153,6 @@
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="172">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2514,6 +2505,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2535,9 +2535,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="171"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="170" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="169"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2840,13 +2840,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2881,16 +2881,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2898,11 +2898,9 @@
         <v>1993</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="18" t="s">
         <v>4</v>
@@ -2911,25 +2909,27 @@
         <v>0</v>
       </c>
       <c r="G3" s="10" t="str">
-        <f t="shared" ref="G3:G35" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G34" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
-        <v>1993</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2">
+        <v>1994</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="10" t="str">
@@ -2939,7 +2939,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>0</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>0</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>0</v>
@@ -3008,10 +3008,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>0</v>
@@ -3032,11 +3033,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>0</v>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>0</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>0</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>0</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>0</v>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>0</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>0</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>0</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>0</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>0</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>0</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>0</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>0</v>
@@ -3348,7 +3348,7 @@
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>0</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>0</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>0</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>0</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>0</v>
@@ -3468,7 +3468,7 @@
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>0</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>0</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>0</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>0</v>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>0</v>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>0</v>
@@ -3636,7 +3636,7 @@
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>0</v>
@@ -3654,30 +3654,6 @@
         <v>0</v>
       </c>
       <c r="G34" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="15">
-        <v>2024</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3689,7 +3665,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="F8:F27 F29">
+  <conditionalFormatting sqref="F7:F26 F28">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3701,12 +3677,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F27 F29">
-    <cfRule type="containsText" dxfId="171" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F4">
+  <conditionalFormatting sqref="F7:F26 F28">
+    <cfRule type="containsText" dxfId="168" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3718,12 +3694,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F4">
-    <cfRule type="containsText" dxfId="170" priority="47" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="167" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F33">
+  <conditionalFormatting sqref="F31:F32">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3735,12 +3711,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F33">
-    <cfRule type="containsText" dxfId="169" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
+  <conditionalFormatting sqref="F31:F32">
+    <cfRule type="containsText" dxfId="166" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29:F30">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3752,12 +3728,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
-    <cfRule type="containsText" dxfId="168" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="F29:F30">
+    <cfRule type="containsText" dxfId="165" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3769,12 +3745,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="167" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F35">
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="164" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:F34">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3786,12 +3762,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F35">
-    <cfRule type="containsText" dxfId="166" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="F33:F34">
+    <cfRule type="containsText" dxfId="163" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3803,12 +3779,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="165" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="162" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3820,12 +3796,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="164" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="161" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3837,9 +3813,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="163" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="containsText" dxfId="160" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3882,7 +3858,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3891,16 +3867,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3908,13 +3884,13 @@
         <v>1993</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>4</v>
@@ -4004,10 +3980,10 @@
         <v>1997</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="18" t="s">
@@ -4075,10 +4051,10 @@
         <v>2000</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="18" t="s">
@@ -4121,10 +4097,10 @@
         <v>2002</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="18" t="s">
@@ -4167,10 +4143,10 @@
         <v>2004</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="18" t="s">
@@ -4189,10 +4165,10 @@
         <v>2005</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="18" t="s">
@@ -4211,10 +4187,10 @@
         <v>2006</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="18" t="s">
@@ -4305,10 +4281,10 @@
         <v>2010</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="18" t="s">
@@ -4327,10 +4303,10 @@
         <v>2011</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="18" t="s">
@@ -4349,10 +4325,10 @@
         <v>2012</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="18" t="s">
@@ -4371,10 +4347,10 @@
         <v>2013</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="18" t="s">
@@ -4393,10 +4369,10 @@
         <v>2014</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="18" t="s">
@@ -4415,10 +4391,10 @@
         <v>2015</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="18" t="s">
@@ -4437,10 +4413,10 @@
         <v>2016</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="18" t="s">
@@ -4459,10 +4435,10 @@
         <v>2017</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="18" t="s">
@@ -4481,10 +4457,10 @@
         <v>2018</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="18" t="s">
@@ -4503,13 +4479,13 @@
         <v>2019</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>4</v>
@@ -4527,13 +4503,13 @@
         <v>2020</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>4</v>
@@ -4551,13 +4527,13 @@
         <v>2021</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>4</v>
@@ -4575,13 +4551,13 @@
         <v>2022</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>4</v>
@@ -4599,13 +4575,13 @@
         <v>2023</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>4</v>
@@ -4661,7 +4637,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F9 F3 F11 F13 F17:F19">
-    <cfRule type="containsText" dxfId="65" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4678,7 +4654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="64" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4695,7 +4671,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="63" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4712,7 +4688,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="62" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4729,7 +4705,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="61" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4746,7 +4722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="60" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4763,7 +4739,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="59" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4780,7 +4756,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="58" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4797,7 +4773,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="57" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4814,7 +4790,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="56" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4831,7 +4807,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4848,7 +4824,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4865,7 +4841,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F31">
-    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4882,7 +4858,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4926,7 +4902,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4935,16 +4911,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4952,13 +4928,13 @@
         <v>1993</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>4</v>
@@ -5048,10 +5024,10 @@
         <v>1997</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="18" t="s">
@@ -5119,10 +5095,10 @@
         <v>2000</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="18" t="s">
@@ -5165,10 +5141,10 @@
         <v>2002</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="18" t="s">
@@ -5259,10 +5235,10 @@
         <v>2006</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="18" t="s">
@@ -5353,10 +5329,10 @@
         <v>2010</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="18" t="s">
@@ -5375,10 +5351,10 @@
         <v>2011</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="18" t="s">
@@ -5397,10 +5373,10 @@
         <v>2012</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="18" t="s">
@@ -5419,10 +5395,10 @@
         <v>2013</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="18" t="s">
@@ -5441,10 +5417,10 @@
         <v>2014</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="18" t="s">
@@ -5463,10 +5439,10 @@
         <v>2015</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="18" t="s">
@@ -5485,10 +5461,10 @@
         <v>2016</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="18" t="s">
@@ -5507,10 +5483,10 @@
         <v>2017</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="18" t="s">
@@ -5529,10 +5505,10 @@
         <v>2018</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="18" t="s">
@@ -5551,13 +5527,13 @@
         <v>2019</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>4</v>
@@ -5575,13 +5551,13 @@
         <v>2020</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>4</v>
@@ -5599,13 +5575,13 @@
         <v>2021</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>4</v>
@@ -5623,13 +5599,13 @@
         <v>2022</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>4</v>
@@ -5647,13 +5623,13 @@
         <v>2023</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>4</v>
@@ -5709,7 +5685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F9 F3 F11 F13 F17:F19">
-    <cfRule type="containsText" dxfId="51" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5726,7 +5702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="50" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5743,7 +5719,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="49" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5760,7 +5736,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="48" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5777,7 +5753,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5794,7 +5770,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="46" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5811,7 +5787,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="45" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5828,7 +5804,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="44" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5845,7 +5821,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5862,7 +5838,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="42" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5879,7 +5855,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F32">
-    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5896,7 +5872,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5913,7 +5889,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5957,7 +5933,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5966,16 +5942,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6079,10 +6055,10 @@
         <v>1997</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="18" t="s">
@@ -6150,10 +6126,10 @@
         <v>2000</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="18" t="s">
@@ -6196,10 +6172,10 @@
         <v>2002</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="18" t="s">
@@ -6290,10 +6266,10 @@
         <v>2006</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="18" t="s">
@@ -6312,10 +6288,10 @@
         <v>2007</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="18" t="s">
@@ -6502,10 +6478,10 @@
         <v>2015</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="18" t="s">
@@ -6524,10 +6500,10 @@
         <v>2016</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="18" t="s">
@@ -6546,10 +6522,10 @@
         <v>2017</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="18" t="s">
@@ -6568,10 +6544,10 @@
         <v>2018</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="18" t="s">
@@ -6590,13 +6566,13 @@
         <v>2019</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>4</v>
@@ -6614,13 +6590,13 @@
         <v>2020</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>4</v>
@@ -6638,13 +6614,13 @@
         <v>2021</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>4</v>
@@ -6662,13 +6638,13 @@
         <v>2022</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>4</v>
@@ -6686,13 +6662,13 @@
         <v>2023</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>4</v>
@@ -6748,7 +6724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F9 F11 F13 F18:F24">
-    <cfRule type="containsText" dxfId="38" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6765,7 +6741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6782,7 +6758,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6799,7 +6775,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6816,7 +6792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6833,7 +6809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="33" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6850,7 +6826,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6867,7 +6843,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="31" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6884,7 +6860,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F32">
-    <cfRule type="containsText" dxfId="30" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6901,7 +6877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6918,7 +6894,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6935,12 +6911,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6957,7 +6933,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6974,7 +6950,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6991,7 +6967,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7008,7 +6984,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7025,7 +7001,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7042,7 +7018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7099,7 +7075,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7108,19 +7084,19 @@
         <v>15</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>55</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7354,10 +7330,10 @@
         <v>2002</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -7402,10 +7378,10 @@
         <v>2004</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -7425,10 +7401,10 @@
         <v>2005</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -7448,10 +7424,10 @@
         <v>2006</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -7471,10 +7447,10 @@
         <v>2007</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -7769,16 +7745,16 @@
         <v>2019</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>4</v>
@@ -7796,16 +7772,16 @@
         <v>2020</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>4</v>
@@ -7823,16 +7799,16 @@
         <v>2021</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>4</v>
@@ -7850,16 +7826,16 @@
         <v>2022</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>4</v>
@@ -7877,16 +7853,16 @@
         <v>2023</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>4</v>
@@ -7943,7 +7919,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13 G5:G11 G18:G28">
-    <cfRule type="containsText" dxfId="19" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7960,7 +7936,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="18" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7977,7 +7953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="17" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7994,7 +7970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="16" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8011,7 +7987,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8028,7 +8004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8045,7 +8021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8062,7 +8038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8079,7 +8055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G33">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8096,7 +8072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8110,7 +8086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9959059-BCFD-46F3-922E-B2B85AC54E97}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -8141,7 +8117,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8150,19 +8126,19 @@
         <v>15</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>55</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8846,16 +8822,16 @@
         <v>2020</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>4</v>
@@ -8873,16 +8849,16 @@
         <v>2021</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>4</v>
@@ -8925,16 +8901,16 @@
         <v>2023</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>4</v>
@@ -8991,7 +8967,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G28">
-    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9008,7 +8984,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="8" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9025,7 +9001,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9042,7 +9018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="6" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9059,7 +9035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G31 G33">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9076,7 +9052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9093,7 +9069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9203,13 +9179,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC84B87D-4EE2-489E-97AB-ED45BA8253B3}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9235,7 +9211,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9244,16 +9220,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9261,11 +9237,9 @@
         <v>1993</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="18" t="s">
         <v>4</v>
@@ -9274,25 +9248,27 @@
         <v>0</v>
       </c>
       <c r="G3" s="10" t="str">
-        <f t="shared" ref="G3:G35" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G34" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
-        <v>1993</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2">
+        <v>1994</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="10" t="str">
@@ -9302,7 +9278,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>0</v>
@@ -9326,7 +9302,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>0</v>
@@ -9350,7 +9326,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>0</v>
@@ -9371,10 +9347,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>0</v>
@@ -9395,11 +9372,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>0</v>
@@ -9423,7 +9399,7 @@
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>0</v>
@@ -9447,7 +9423,7 @@
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>0</v>
@@ -9471,7 +9447,7 @@
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>0</v>
@@ -9495,7 +9471,7 @@
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>0</v>
@@ -9519,7 +9495,7 @@
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>0</v>
@@ -9543,7 +9519,7 @@
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>0</v>
@@ -9567,7 +9543,7 @@
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>0</v>
@@ -9591,7 +9567,7 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>0</v>
@@ -9615,7 +9591,7 @@
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>0</v>
@@ -9639,7 +9615,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>0</v>
@@ -9663,7 +9639,7 @@
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>0</v>
@@ -9687,7 +9663,7 @@
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>0</v>
@@ -9711,7 +9687,7 @@
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>0</v>
@@ -9735,7 +9711,7 @@
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>0</v>
@@ -9759,7 +9735,7 @@
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>0</v>
@@ -9783,7 +9759,7 @@
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>0</v>
@@ -9807,7 +9783,7 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>0</v>
@@ -9831,7 +9807,7 @@
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>0</v>
@@ -9855,7 +9831,7 @@
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>0</v>
@@ -9879,7 +9855,7 @@
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>0</v>
@@ -9903,7 +9879,7 @@
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>0</v>
@@ -9927,7 +9903,7 @@
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>0</v>
@@ -9951,7 +9927,7 @@
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>0</v>
@@ -9975,7 +9951,7 @@
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>0</v>
@@ -9999,7 +9975,7 @@
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>0</v>
@@ -10017,30 +9993,6 @@
         <v>0</v>
       </c>
       <c r="G34" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="15">
-        <v>2024</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10051,7 +10003,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F8:F27 F29">
+  <conditionalFormatting sqref="F7:F26 F28">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10063,12 +10015,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F27 F29">
-    <cfRule type="containsText" dxfId="162" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F4">
+  <conditionalFormatting sqref="F7:F26 F28">
+    <cfRule type="containsText" dxfId="159" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10080,12 +10032,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F4">
-    <cfRule type="containsText" dxfId="161" priority="15" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="158" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F33">
+  <conditionalFormatting sqref="F31:F32">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10097,12 +10049,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F33">
-    <cfRule type="containsText" dxfId="160" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
+  <conditionalFormatting sqref="F31:F32">
+    <cfRule type="containsText" dxfId="157" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29:F30">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10114,12 +10066,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
-    <cfRule type="containsText" dxfId="159" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="F29:F30">
+    <cfRule type="containsText" dxfId="156" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10131,12 +10083,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="158" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F35">
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="155" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:F34">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10148,12 +10100,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F35">
-    <cfRule type="containsText" dxfId="157" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="F33:F34">
+    <cfRule type="containsText" dxfId="154" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10165,12 +10117,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="156" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="153" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10182,12 +10134,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="155" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="152" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10199,9 +10151,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="154" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="containsText" dxfId="151" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10212,13 +10164,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E179BEC1-8C55-4CDE-9190-5B00D1609C48}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10244,7 +10196,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10253,16 +10205,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10270,38 +10222,38 @@
         <v>1993</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="10" t="str">
-        <f t="shared" ref="G3:G35" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G34" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
-        <v>1993</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2">
+        <v>1994</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="10" t="str">
@@ -10311,7 +10263,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>0</v>
@@ -10335,7 +10287,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>0</v>
@@ -10359,7 +10311,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>0</v>
@@ -10380,10 +10332,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>0</v>
@@ -10404,11 +10357,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>0</v>
@@ -10432,7 +10384,7 @@
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>0</v>
@@ -10456,7 +10408,7 @@
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>0</v>
@@ -10480,7 +10432,7 @@
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>0</v>
@@ -10504,7 +10456,7 @@
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>0</v>
@@ -10528,7 +10480,7 @@
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>0</v>
@@ -10552,7 +10504,7 @@
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>0</v>
@@ -10576,7 +10528,7 @@
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>0</v>
@@ -10600,7 +10552,7 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>0</v>
@@ -10624,7 +10576,7 @@
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>0</v>
@@ -10648,7 +10600,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>0</v>
@@ -10672,7 +10624,7 @@
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>0</v>
@@ -10696,7 +10648,7 @@
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>0</v>
@@ -10720,7 +10672,7 @@
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>0</v>
@@ -10744,7 +10696,7 @@
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>0</v>
@@ -10768,7 +10720,7 @@
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>0</v>
@@ -10792,7 +10744,7 @@
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>0</v>
@@ -10816,7 +10768,7 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>0</v>
@@ -10840,7 +10792,7 @@
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>0</v>
@@ -10864,7 +10816,7 @@
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>0</v>
@@ -10888,7 +10840,7 @@
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>0</v>
@@ -10912,7 +10864,7 @@
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>0</v>
@@ -10936,7 +10888,7 @@
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>0</v>
@@ -10960,7 +10912,7 @@
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>0</v>
@@ -10984,7 +10936,7 @@
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>0</v>
@@ -11008,7 +10960,7 @@
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>0</v>
@@ -11026,30 +10978,6 @@
         <v>0</v>
       </c>
       <c r="G34" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="15">
-        <v>2024</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11060,7 +10988,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F8:F27 F29">
+  <conditionalFormatting sqref="F7:F26 F28">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11072,12 +11000,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F27 F29">
-    <cfRule type="containsText" dxfId="153" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F4">
+  <conditionalFormatting sqref="F7:F26 F28">
+    <cfRule type="containsText" dxfId="150" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11089,12 +11017,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F4">
-    <cfRule type="containsText" dxfId="152" priority="15" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="149" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F33">
+  <conditionalFormatting sqref="F31:F32">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11106,12 +11034,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F33">
-    <cfRule type="containsText" dxfId="151" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
+  <conditionalFormatting sqref="F31:F32">
+    <cfRule type="containsText" dxfId="148" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29:F30">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11123,12 +11051,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
-    <cfRule type="containsText" dxfId="150" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="F29:F30">
+    <cfRule type="containsText" dxfId="147" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11140,12 +11068,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="149" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F35">
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="146" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:F34">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11157,12 +11085,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F35">
-    <cfRule type="containsText" dxfId="148" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="F33:F34">
+    <cfRule type="containsText" dxfId="145" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11174,12 +11102,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="147" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="144" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11191,12 +11119,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="146" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="143" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11208,9 +11136,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="145" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="containsText" dxfId="142" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11221,13 +11149,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B613366D-3DF2-4C8B-833D-DFFD341C6695}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11253,7 +11181,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11262,16 +11190,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11279,38 +11207,38 @@
         <v>1993</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="10" t="str">
-        <f t="shared" ref="G3:G35" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G34" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
-        <v>1993</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2">
+        <v>1994</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="10" t="str">
@@ -11320,7 +11248,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>0</v>
@@ -11344,7 +11272,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>0</v>
@@ -11368,7 +11296,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>0</v>
@@ -11389,10 +11317,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>0</v>
@@ -11413,11 +11342,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>0</v>
@@ -11441,7 +11369,7 @@
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>0</v>
@@ -11465,7 +11393,7 @@
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>0</v>
@@ -11489,7 +11417,7 @@
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>0</v>
@@ -11513,7 +11441,7 @@
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>0</v>
@@ -11537,7 +11465,7 @@
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>0</v>
@@ -11561,7 +11489,7 @@
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>0</v>
@@ -11585,7 +11513,7 @@
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>0</v>
@@ -11609,7 +11537,7 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>0</v>
@@ -11633,7 +11561,7 @@
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>0</v>
@@ -11657,7 +11585,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>0</v>
@@ -11681,7 +11609,7 @@
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>0</v>
@@ -11705,7 +11633,7 @@
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>0</v>
@@ -11729,7 +11657,7 @@
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>0</v>
@@ -11753,7 +11681,7 @@
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>0</v>
@@ -11777,7 +11705,7 @@
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>0</v>
@@ -11801,7 +11729,7 @@
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>0</v>
@@ -11825,7 +11753,7 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>0</v>
@@ -11849,7 +11777,7 @@
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>0</v>
@@ -11873,7 +11801,7 @@
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>0</v>
@@ -11897,7 +11825,7 @@
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>0</v>
@@ -11921,7 +11849,7 @@
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>0</v>
@@ -11945,7 +11873,7 @@
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>0</v>
@@ -11969,7 +11897,7 @@
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>0</v>
@@ -11993,7 +11921,7 @@
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>0</v>
@@ -12017,7 +11945,7 @@
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>0</v>
@@ -12035,30 +11963,6 @@
         <v>0</v>
       </c>
       <c r="G34" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="15">
-        <v>2024</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12069,7 +11973,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F8:F27 F29">
+  <conditionalFormatting sqref="F7:F26 F28">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12081,12 +11985,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F27 F29">
-    <cfRule type="containsText" dxfId="144" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F4">
+  <conditionalFormatting sqref="F7:F26 F28">
+    <cfRule type="containsText" dxfId="141" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12098,12 +12002,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F4">
-    <cfRule type="containsText" dxfId="143" priority="15" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="140" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F33">
+  <conditionalFormatting sqref="F31:F32">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12115,12 +12019,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F33">
-    <cfRule type="containsText" dxfId="142" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
+  <conditionalFormatting sqref="F31:F32">
+    <cfRule type="containsText" dxfId="139" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29:F30">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12132,12 +12036,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
-    <cfRule type="containsText" dxfId="141" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="F29:F30">
+    <cfRule type="containsText" dxfId="138" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12149,12 +12053,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="140" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F35">
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="137" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:F34">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12166,12 +12070,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F35">
-    <cfRule type="containsText" dxfId="139" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="F33:F34">
+    <cfRule type="containsText" dxfId="136" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12183,12 +12087,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="138" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="135" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12200,12 +12104,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="137" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="134" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12217,9 +12121,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="136" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="containsText" dxfId="133" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12230,13 +12134,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ED3FA8-A963-416C-AC0D-D2266577F95E}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12262,7 +12166,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12271,16 +12175,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12288,11 +12192,9 @@
         <v>1993</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="18" t="s">
         <v>4</v>
@@ -12301,25 +12203,27 @@
         <v>0</v>
       </c>
       <c r="G3" s="10" t="str">
-        <f t="shared" ref="G3:G35" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G34" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
-        <v>1993</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2">
+        <v>1994</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="10" t="str">
@@ -12329,7 +12233,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>0</v>
@@ -12353,7 +12257,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>0</v>
@@ -12377,7 +12281,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>0</v>
@@ -12398,10 +12302,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>0</v>
@@ -12422,11 +12327,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>0</v>
@@ -12450,7 +12354,7 @@
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>0</v>
@@ -12474,7 +12378,7 @@
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>0</v>
@@ -12498,7 +12402,7 @@
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>0</v>
@@ -12522,7 +12426,7 @@
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>0</v>
@@ -12546,7 +12450,7 @@
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>0</v>
@@ -12570,7 +12474,7 @@
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>0</v>
@@ -12594,7 +12498,7 @@
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>0</v>
@@ -12618,7 +12522,7 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>0</v>
@@ -12642,7 +12546,7 @@
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>0</v>
@@ -12666,7 +12570,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>0</v>
@@ -12690,7 +12594,7 @@
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>0</v>
@@ -12714,7 +12618,7 @@
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>0</v>
@@ -12738,7 +12642,7 @@
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>0</v>
@@ -12762,7 +12666,7 @@
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>0</v>
@@ -12786,7 +12690,7 @@
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>0</v>
@@ -12810,7 +12714,7 @@
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>0</v>
@@ -12834,7 +12738,7 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>0</v>
@@ -12858,7 +12762,7 @@
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>0</v>
@@ -12882,7 +12786,7 @@
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>0</v>
@@ -12906,7 +12810,7 @@
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>0</v>
@@ -12930,7 +12834,7 @@
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>0</v>
@@ -12954,7 +12858,7 @@
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>0</v>
@@ -12978,7 +12882,7 @@
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>0</v>
@@ -13002,7 +12906,7 @@
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>0</v>
@@ -13026,7 +12930,7 @@
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>0</v>
@@ -13044,30 +12948,6 @@
         <v>0</v>
       </c>
       <c r="G34" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="15">
-        <v>2024</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -13078,7 +12958,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F8:F27 F29">
+  <conditionalFormatting sqref="F7:F26 F28">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13090,12 +12970,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F27 F29">
-    <cfRule type="containsText" dxfId="135" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F4">
+  <conditionalFormatting sqref="F7:F26 F28">
+    <cfRule type="containsText" dxfId="132" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13107,12 +12987,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F4">
-    <cfRule type="containsText" dxfId="134" priority="15" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="131" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F33">
+  <conditionalFormatting sqref="F31:F32">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13124,12 +13004,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F33">
-    <cfRule type="containsText" dxfId="133" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
+  <conditionalFormatting sqref="F31:F32">
+    <cfRule type="containsText" dxfId="130" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29:F30">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13141,12 +13021,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
-    <cfRule type="containsText" dxfId="132" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="F29:F30">
+    <cfRule type="containsText" dxfId="129" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13158,12 +13038,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="131" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F35">
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="128" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:F34">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13175,12 +13055,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F35">
-    <cfRule type="containsText" dxfId="130" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="F33:F34">
+    <cfRule type="containsText" dxfId="127" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13192,12 +13072,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="129" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="126" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13209,12 +13089,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="128" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="125" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13226,9 +13106,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="127" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="containsText" dxfId="124" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13245,7 +13125,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13271,7 +13151,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13280,16 +13160,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13297,10 +13177,10 @@
         <v>1993</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="18" t="s">
@@ -13391,10 +13271,10 @@
         <v>1997</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="18" t="s">
@@ -13462,10 +13342,10 @@
         <v>2000</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="18" t="s">
@@ -13508,10 +13388,10 @@
         <v>2002</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="18" t="s">
@@ -13554,10 +13434,10 @@
         <v>2004</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="18" t="s">
@@ -13576,10 +13456,10 @@
         <v>2005</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="18" t="s">
@@ -13718,10 +13598,10 @@
         <v>2011</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="18" t="s">
@@ -13740,10 +13620,10 @@
         <v>2012</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="18" t="s">
@@ -13762,10 +13642,10 @@
         <v>2013</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="18" t="s">
@@ -13784,10 +13664,10 @@
         <v>2014</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="18" t="s">
@@ -13806,10 +13686,10 @@
         <v>2014</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="18" t="s">
@@ -13828,10 +13708,10 @@
         <v>2015</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="18" t="s">
@@ -13850,10 +13730,10 @@
         <v>2015</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="18" t="s">
@@ -13872,10 +13752,10 @@
         <v>2016</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="18" t="s">
@@ -13894,10 +13774,10 @@
         <v>2016</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="18" t="s">
@@ -13916,10 +13796,10 @@
         <v>2017</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="18" t="s">
@@ -13938,10 +13818,10 @@
         <v>2018</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="18" t="s">
@@ -13960,13 +13840,13 @@
         <v>2019</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>4</v>
@@ -13984,13 +13864,13 @@
         <v>2020</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>4</v>
@@ -14008,13 +13888,13 @@
         <v>2021</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>4</v>
@@ -14056,13 +13936,13 @@
         <v>2023</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>4</v>
@@ -14118,7 +13998,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F9 F3 F11 F13 F16:F20">
-    <cfRule type="containsText" dxfId="126" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14135,7 +14015,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="125" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14152,7 +14032,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="124" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14169,7 +14049,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="123" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14186,7 +14066,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="122" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14203,7 +14083,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="121" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14220,7 +14100,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="120" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14237,7 +14117,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="119" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14254,7 +14134,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="118" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14271,7 +14151,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="117" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14288,7 +14168,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="116" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14305,7 +14185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="115" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14322,7 +14202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="114" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14339,7 +14219,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="113" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14356,7 +14236,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="112" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14373,7 +14253,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="111" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14390,7 +14270,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="110" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14407,7 +14287,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="109" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14424,7 +14304,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="108" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14441,7 +14321,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="107" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14458,7 +14338,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="106" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14475,7 +14355,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="105" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14492,7 +14372,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="104" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14509,7 +14389,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14526,7 +14406,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="102" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14543,7 +14423,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14587,7 +14467,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14596,16 +14476,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14902,10 +14782,10 @@
         <v>2005</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="18" t="s">
@@ -14924,10 +14804,10 @@
         <v>2006</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="18" t="s">
@@ -15354,13 +15234,13 @@
         <v>2021</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>4</v>
@@ -15402,13 +15282,13 @@
         <v>2023</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>4</v>
@@ -15464,7 +15344,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F33 F35 F37">
-    <cfRule type="containsText" dxfId="100" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15481,7 +15361,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="99" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15498,7 +15378,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="98" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15515,7 +15395,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F14">
-    <cfRule type="containsText" dxfId="97" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15532,7 +15412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="96" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15549,7 +15429,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15593,7 +15473,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -15602,16 +15482,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -15619,10 +15499,10 @@
         <v>1993</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="18" t="s">
@@ -16472,7 +16352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F37">
-    <cfRule type="containsText" dxfId="94" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16489,7 +16369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F11">
-    <cfRule type="containsText" dxfId="93" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16506,7 +16386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="92" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16550,7 +16430,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16559,16 +16439,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16576,10 +16456,10 @@
         <v>1993</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="18" t="s">
@@ -16670,10 +16550,10 @@
         <v>1997</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="18" t="s">
@@ -16741,10 +16621,10 @@
         <v>2000</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="18" t="s">
@@ -16787,10 +16667,10 @@
         <v>2002</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="18" t="s">
@@ -16833,10 +16713,10 @@
         <v>2004</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="18" t="s">
@@ -16855,10 +16735,10 @@
         <v>2005</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="18" t="s">
@@ -16877,10 +16757,10 @@
         <v>2006</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="18" t="s">
@@ -16971,10 +16851,10 @@
         <v>2010</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="18" t="s">
@@ -16993,10 +16873,10 @@
         <v>2011</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="18" t="s">
@@ -17015,10 +16895,10 @@
         <v>2012</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="18" t="s">
@@ -17037,10 +16917,10 @@
         <v>2013</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="18" t="s">
@@ -17059,10 +16939,10 @@
         <v>2014</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="18" t="s">
@@ -17081,10 +16961,10 @@
         <v>2015</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="18" t="s">
@@ -17103,10 +16983,10 @@
         <v>2016</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="18" t="s">
@@ -17125,10 +17005,10 @@
         <v>2016</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="18" t="s">
@@ -17147,10 +17027,10 @@
         <v>2017</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="18" t="s">
@@ -17169,10 +17049,10 @@
         <v>2018</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="18" t="s">
@@ -17191,13 +17071,13 @@
         <v>2019</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>4</v>
@@ -17215,13 +17095,13 @@
         <v>2020</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>4</v>
@@ -17239,13 +17119,13 @@
         <v>2021</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>4</v>
@@ -17287,13 +17167,13 @@
         <v>2023</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>4</v>
@@ -17349,7 +17229,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F9 F3 F11 F13 F17:F19">
-    <cfRule type="containsText" dxfId="91" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17366,7 +17246,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="90" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17383,7 +17263,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="89" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17400,7 +17280,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="88" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17417,7 +17297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="87" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17434,7 +17314,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="86" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17451,7 +17331,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="85" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17468,7 +17348,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="84" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17485,7 +17365,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="83" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17502,7 +17382,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="82" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17519,7 +17399,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="81" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17536,7 +17416,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="80" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17553,7 +17433,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="79" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17570,7 +17450,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="78" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17587,7 +17467,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="77" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17604,7 +17484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="76" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17621,7 +17501,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="75" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17638,7 +17518,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="74" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17655,7 +17535,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="73" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17672,7 +17552,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="72" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17689,7 +17569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="71" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17706,7 +17586,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="70" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17723,7 +17603,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="69" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17740,7 +17620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="68" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17757,7 +17637,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="67" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17774,7 +17654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="66" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Kazakhstan/#Kazakhstan#Regular#[1995-present]#circulation_quality.xlsx
+++ b/Collections/Kazakhstan/#Kazakhstan#Regular#[1995-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Kazakhstan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24DBC0F-3843-4E03-8B65-30AE9712F3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5847F5DE-7646-4CF8-9CBC-A991A580C859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="33150" windowHeight="17700" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2тиын" sheetId="4" r:id="rId1"/>
@@ -1153,6 +1153,15 @@
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="172">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2505,15 +2514,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2535,9 +2535,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="171"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="170" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="169"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3678,7 +3678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F26 F28">
-    <cfRule type="containsText" dxfId="168" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3695,7 +3695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="167" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3712,7 +3712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F32">
-    <cfRule type="containsText" dxfId="166" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3729,7 +3729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F30">
-    <cfRule type="containsText" dxfId="165" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3746,7 +3746,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="164" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3763,7 +3763,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:F34">
-    <cfRule type="containsText" dxfId="163" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3780,7 +3780,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="162" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3797,7 +3797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="161" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3814,7 +3814,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="160" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4637,7 +4637,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F9 F3 F11 F13 F17:F19">
-    <cfRule type="containsText" dxfId="62" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4654,7 +4654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="61" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4671,7 +4671,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="60" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4688,7 +4688,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="59" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4705,7 +4705,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="58" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4722,7 +4722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="57" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4739,7 +4739,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="56" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4756,7 +4756,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="55" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4773,7 +4773,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="54" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4790,7 +4790,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="53" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4807,7 +4807,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="52" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4824,7 +4824,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="51" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4841,7 +4841,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F31">
-    <cfRule type="containsText" dxfId="50" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4858,7 +4858,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5685,7 +5685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F9 F3 F11 F13 F17:F19">
-    <cfRule type="containsText" dxfId="48" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5702,7 +5702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5719,7 +5719,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="46" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5736,7 +5736,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="45" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5753,7 +5753,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="44" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5770,7 +5770,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="43" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5787,7 +5787,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="42" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5804,7 +5804,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="41" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5821,7 +5821,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5838,7 +5838,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="39" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5855,7 +5855,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F32">
-    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5872,7 +5872,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5889,7 +5889,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6724,7 +6724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F9 F11 F13 F18:F24">
-    <cfRule type="containsText" dxfId="35" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6741,7 +6741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="34" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6758,7 +6758,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="33" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6775,7 +6775,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6792,7 +6792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6809,7 +6809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="30" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6826,7 +6826,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6843,7 +6843,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6860,7 +6860,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F32">
-    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6877,7 +6877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6894,7 +6894,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6911,12 +6911,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6933,7 +6933,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6950,7 +6950,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6967,7 +6967,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6984,7 +6984,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7001,7 +7001,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7018,7 +7018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7919,7 +7919,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13 G5:G11 G18:G28">
-    <cfRule type="containsText" dxfId="16" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7936,7 +7936,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="15" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7953,7 +7953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="14" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7970,7 +7970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7987,7 +7987,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8004,7 +8004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8021,7 +8021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8038,7 +8038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8055,7 +8055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G33">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8072,7 +8072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8086,11 +8086,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9959059-BCFD-46F3-922E-B2B85AC54E97}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8837,7 +8837,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="10" t="str">
         <f t="shared" si="0"/>
@@ -8967,7 +8967,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G28">
-    <cfRule type="containsText" dxfId="6" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8984,7 +8984,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="5" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9001,7 +9001,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="4" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9018,7 +9018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="3" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9035,7 +9035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G31 G33">
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9052,7 +9052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9069,7 +9069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10016,7 +10016,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F26 F28">
-    <cfRule type="containsText" dxfId="159" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10033,7 +10033,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="158" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10050,7 +10050,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F32">
-    <cfRule type="containsText" dxfId="157" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10067,7 +10067,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F30">
-    <cfRule type="containsText" dxfId="156" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10084,7 +10084,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="155" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10101,7 +10101,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:F34">
-    <cfRule type="containsText" dxfId="154" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10118,7 +10118,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="153" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10135,7 +10135,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="152" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10152,7 +10152,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="151" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11001,7 +11001,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F26 F28">
-    <cfRule type="containsText" dxfId="150" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11018,7 +11018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="149" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11035,7 +11035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F32">
-    <cfRule type="containsText" dxfId="148" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11052,7 +11052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F30">
-    <cfRule type="containsText" dxfId="147" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11069,7 +11069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="146" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11086,7 +11086,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:F34">
-    <cfRule type="containsText" dxfId="145" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11103,7 +11103,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="144" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11120,7 +11120,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="143" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11137,7 +11137,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="142" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11151,7 +11151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B613366D-3DF2-4C8B-833D-DFFD341C6695}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -11986,7 +11986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F26 F28">
-    <cfRule type="containsText" dxfId="141" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12003,7 +12003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="140" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12020,7 +12020,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F32">
-    <cfRule type="containsText" dxfId="139" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12037,7 +12037,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F30">
-    <cfRule type="containsText" dxfId="138" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12054,7 +12054,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="137" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12071,7 +12071,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:F34">
-    <cfRule type="containsText" dxfId="136" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12088,7 +12088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="135" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12105,7 +12105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="134" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12122,7 +12122,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="133" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12971,7 +12971,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F26 F28">
-    <cfRule type="containsText" dxfId="132" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12988,7 +12988,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="131" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13005,7 +13005,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F32">
-    <cfRule type="containsText" dxfId="130" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13022,7 +13022,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F30">
-    <cfRule type="containsText" dxfId="129" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13039,7 +13039,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="128" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13056,7 +13056,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:F34">
-    <cfRule type="containsText" dxfId="127" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13073,7 +13073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="126" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13090,7 +13090,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="125" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13107,7 +13107,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="124" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13998,7 +13998,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F9 F3 F11 F13 F16:F20">
-    <cfRule type="containsText" dxfId="123" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14015,7 +14015,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="122" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14032,7 +14032,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="121" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14049,7 +14049,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="120" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14066,7 +14066,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="119" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14083,7 +14083,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="118" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14100,7 +14100,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="117" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14117,7 +14117,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="116" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14134,7 +14134,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="115" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14151,7 +14151,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="114" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14168,7 +14168,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="113" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14185,7 +14185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="112" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14202,7 +14202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="111" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14219,7 +14219,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="110" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14236,7 +14236,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="109" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14253,7 +14253,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="108" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14270,7 +14270,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="107" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14287,7 +14287,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="106" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14304,7 +14304,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="105" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14321,7 +14321,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="104" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14338,7 +14338,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="103" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14355,7 +14355,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="102" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14372,7 +14372,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="101" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14389,7 +14389,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="100" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14406,7 +14406,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="99" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14423,7 +14423,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="98" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15344,7 +15344,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F33 F35 F37">
-    <cfRule type="containsText" dxfId="97" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15361,7 +15361,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="96" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15378,7 +15378,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15395,7 +15395,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F14">
-    <cfRule type="containsText" dxfId="94" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15412,7 +15412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15429,7 +15429,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="92" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16352,7 +16352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F37">
-    <cfRule type="containsText" dxfId="91" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16369,7 +16369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F11">
-    <cfRule type="containsText" dxfId="90" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16386,7 +16386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17229,7 +17229,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F9 F3 F11 F13 F17:F19">
-    <cfRule type="containsText" dxfId="88" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17246,7 +17246,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="87" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17263,7 +17263,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="86" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17280,7 +17280,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="85" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17297,7 +17297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="84" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17314,7 +17314,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="83" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17331,7 +17331,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="82" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17348,7 +17348,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="81" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17365,7 +17365,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="80" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17382,7 +17382,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="79" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17399,7 +17399,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="78" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17416,7 +17416,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="77" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17433,7 +17433,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="76" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17450,7 +17450,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="75" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17467,7 +17467,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="74" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17484,7 +17484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="73" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17501,7 +17501,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="72" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17518,7 +17518,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="71" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17535,7 +17535,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="70" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17552,7 +17552,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17569,7 +17569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="68" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17586,7 +17586,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="67" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17603,7 +17603,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="66" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17620,7 +17620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17637,7 +17637,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="64" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17654,7 +17654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
